--- a/results/I3_N5_M3_T15_C100_DepCentral_s1_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1389.3964527968</v>
+        <v>238.6464527964958</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5170001983642578</v>
+        <v>0.2060000896453857</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.292629554808314</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.292629554808314</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1121.470000000304</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.28</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,50 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -882,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.741951075243186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -944,7 +988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1016,62 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000103</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.255000000012</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000105</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999998687</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999998826</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77499999998687</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.01499999998666</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999998746</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>125.8450000000113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>123.4200000000102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>112.6850000000068</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>123.9850000000051</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>124.6300000000059</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>63.13499999999996</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>60.36499999999845</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>61.40499999999911</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.17499999999924</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>62.25999999999888</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>164.8599999999903</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>156.4849999999869</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.6699999999865</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>161.1199999999844</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>165.8249999999868</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>126.9700000000358</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>127.65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>136.855000000036</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>127.2550000000392</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>123.480000000036</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>164.8599999999784</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>156.484999999975</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.6699999999746</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>161.1199999999707</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>165.8249999999731</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>125.8450000000313</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>123.4200000000303</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>112.6850000000287</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>123.9850000000288</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>124.6300000000296</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>26.97000000003493</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>36.85500000003515</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>27.25500000003842</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>23.48000000003515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>64.85999999997728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>56.48499999997387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>59.66999999997347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>61.11999999996954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>65.82499999997196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>25.84500000003004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>23.42000000002906</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.68500000002746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>23.98500000002753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6300000000283</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,7 +2155,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2166,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2177,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2188,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2099,10 +2199,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2110,10 +2210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2121,100 +2221,12 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
